--- a/result/gr25_01_simulated/details.xlsx
+++ b/result/gr25_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2730216979980469</v>
+        <v>0.3260133266448975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.00817524086051</v>
+        <v>55.19530194853905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001928884187537834</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001488151682058221</v>
+        <v>0.001614282915651162</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001427506265277579</v>
+        <v>0.001474663765395419</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001427506265277579</v>
+        <v>0.001474663765395419</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001317064705702057</v>
+        <v>0.001435007657782635</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001317064705702057</v>
+        <v>0.001368985721015087</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001190509052898721</v>
+        <v>0.001342061859284133</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001190509052898721</v>
+        <v>0.001247027965317697</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001190509052898721</v>
+        <v>0.001247027965317697</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001153560521226935</v>
+        <v>0.001161042037927625</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001151046642243402</v>
+        <v>0.001161042037927625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001117593111877944</v>
+        <v>0.001122052931221521</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001112963381001357</v>
+        <v>0.001097907715602116</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001082445268544852</v>
+        <v>0.001097907715602116</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001060518991130434</v>
+        <v>0.001097907715602116</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001060518991130434</v>
+        <v>0.001097907715602116</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0010414593345029</v>
+        <v>0.001096096261867095</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0010414593345029</v>
+        <v>0.001094757477420461</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001033297762979737</v>
+        <v>0.001080757880222699</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001033297762979737</v>
+        <v>0.001075931811862359</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2839968204498291</v>
+        <v>0.2740449905395508</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>56.92676684765866</v>
+        <v>51.90189426400138</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001857897992550244</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001642079208947558</v>
+        <v>0.001588698868452422</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001444040841571146</v>
+        <v>0.001449352956172938</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001387716151794488</v>
+        <v>0.001327057453588113</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001387716151794488</v>
+        <v>0.001327057453588113</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001387716151794488</v>
+        <v>0.001285011079778936</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001329255981258894</v>
+        <v>0.001253697775171577</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001322144972037441</v>
+        <v>0.001246499520321984</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001257739784701365</v>
+        <v>0.001246499520321984</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001250571586895897</v>
+        <v>0.001167888378278615</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001231610688189807</v>
+        <v>0.001144224340544481</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001183547049937299</v>
+        <v>0.001104392785848893</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001180093490340517</v>
+        <v>0.001094938547026175</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001169501763701223</v>
+        <v>0.001073635332183636</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001169501763701223</v>
+        <v>0.00105479369664574</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001153304547288076</v>
+        <v>0.001037888920513721</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001140364213753065</v>
+        <v>0.001037888920513721</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001137216488827228</v>
+        <v>0.001023560124360822</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001123609023189525</v>
+        <v>0.001016834911464663</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001109683564281845</v>
+        <v>0.001011732831656947</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3030028343200684</v>
+        <v>0.2221107482910156</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>52.69423076219027</v>
+        <v>53.1604029801274</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00190486041151521</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001581180587760655</v>
+        <v>0.001474373738155936</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001450208548164853</v>
+        <v>0.00142741662757629</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001359035610651679</v>
+        <v>0.001383611703336198</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001259169426910758</v>
+        <v>0.001361862594219478</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001259169426910758</v>
+        <v>0.001327506828734737</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001259169426910758</v>
+        <v>0.001256940992374843</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001259169426910758</v>
+        <v>0.001256940992374843</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001201877024180498</v>
+        <v>0.001256940992374843</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001143075936184974</v>
+        <v>0.001256940992374843</v>
       </c>
       <c r="P4" t="n">
-        <v>0.00113364217633514</v>
+        <v>0.001195443298494216</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00113364217633514</v>
+        <v>0.001195443298494216</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001098231252044517</v>
+        <v>0.001154150309460297</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001098231252044517</v>
+        <v>0.001139217272490699</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001056212980908709</v>
+        <v>0.001098253733138509</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001055203725786784</v>
+        <v>0.001087842380318435</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001055203725786784</v>
+        <v>0.001080728982990719</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001043731550112693</v>
+        <v>0.001057865891180823</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001027177987567062</v>
+        <v>0.001037905199908826</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001027177987567062</v>
+        <v>0.001036265165304628</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2114758491516113</v>
+        <v>0.2858626842498779</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>61.6103722004882</v>
+        <v>55.91586791694499</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001885446697015956</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001600723046175965</v>
+        <v>0.001607069092659935</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001462549331062775</v>
+        <v>0.001544747418441592</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001460201047970148</v>
+        <v>0.001397212136701191</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001415545360708486</v>
+        <v>0.001397212136701191</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001342671488218415</v>
+        <v>0.001397212136701191</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001340293878865832</v>
+        <v>0.001334379282170967</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001340293878865832</v>
+        <v>0.001310743449623976</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001340293878865832</v>
+        <v>0.001228004965801997</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001308369706587337</v>
+        <v>0.001228004965801997</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001285919993559318</v>
+        <v>0.001228004965801997</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001274948399866021</v>
+        <v>0.001199176269367962</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001269134598482707</v>
+        <v>0.00118768483859957</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001269134598482707</v>
+        <v>0.001179128012294062</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001255168346295349</v>
+        <v>0.001154071151656085</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001232096761597529</v>
+        <v>0.001135182204253374</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001226381422340963</v>
+        <v>0.001119167386653371</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001210533280648103</v>
+        <v>0.001099247544057896</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001201974728688125</v>
+        <v>0.001099247544057896</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001200981914239536</v>
+        <v>0.001089977932104191</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2389097213745117</v>
+        <v>0.3089587688446045</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>53.52121905531385</v>
+        <v>54.82122733192409</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001881407930351898</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001668421884939117</v>
+        <v>0.001567339396814643</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001530243477855374</v>
+        <v>0.001472718318202052</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001343351414879008</v>
+        <v>0.001375652742961917</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001343351414879008</v>
+        <v>0.001360027046507985</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00132390852330838</v>
+        <v>0.001319507424841663</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001246917735512596</v>
+        <v>0.001319507424841663</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001246917735512596</v>
+        <v>0.001219204131700101</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00124024592481317</v>
+        <v>0.001219204131700101</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001218357457037129</v>
+        <v>0.001206774253131083</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001159607283116131</v>
+        <v>0.001176093531518318</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001142695637780717</v>
+        <v>0.001176093531518318</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001113472035226914</v>
+        <v>0.001143791534950704</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001113472035226914</v>
+        <v>0.001131665803806176</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001097303062823569</v>
+        <v>0.001120482994711816</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001078904933268997</v>
+        <v>0.001113034280203392</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001067792940286937</v>
+        <v>0.001094506547793344</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001053929901126286</v>
+        <v>0.00109305207247858</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001044485929145998</v>
+        <v>0.001088394536213544</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001043298617062648</v>
+        <v>0.001068639909004368</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2061669826507568</v>
+        <v>0.3329288959503174</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>53.12066240643435</v>
+        <v>55.45305847742566</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001901492573210116</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001525861211637384</v>
+        <v>0.00160843379027147</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001421874293309227</v>
+        <v>0.001508323544057717</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001336604675018048</v>
+        <v>0.00147085894684559</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001291658346366546</v>
+        <v>0.001371826854793346</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001243914341151903</v>
+        <v>0.001353026232869847</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001197187380092901</v>
+        <v>0.00129613252471766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001197187380092901</v>
+        <v>0.001163375587572966</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001169435907492501</v>
+        <v>0.001163375587572966</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001169435907492501</v>
+        <v>0.001163375587572966</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001169435907492501</v>
+        <v>0.001163375587572966</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001131739229689767</v>
+        <v>0.001163375587572966</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001097340589019074</v>
+        <v>0.001156715553782254</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001097340589019074</v>
+        <v>0.001148596602212179</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001090855718497653</v>
+        <v>0.001135982044601242</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001071908846680888</v>
+        <v>0.00111527730927445</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001071908846680888</v>
+        <v>0.001096330227938437</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001050287402656651</v>
+        <v>0.001096330227938437</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001050287402656651</v>
+        <v>0.001080956305602839</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001035490495252131</v>
+        <v>0.001080956305602839</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2136471271514893</v>
+        <v>0.2268500328063965</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>51.89193163476557</v>
+        <v>53.04076335701757</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001827100542177256</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001620574854466654</v>
+        <v>0.0015608470781461</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001528925486122087</v>
+        <v>0.001420679607079712</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001396473374211302</v>
+        <v>0.001420679607079712</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001396473374211302</v>
+        <v>0.001355465243370035</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001346004883994575</v>
+        <v>0.001355465243370035</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001329411787096902</v>
+        <v>0.00123612566526615</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00121729499590793</v>
+        <v>0.00123612566526615</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001201802715460755</v>
+        <v>0.00123612566526615</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001137700429412822</v>
+        <v>0.00123612566526615</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001122227363156442</v>
+        <v>0.001175312739882922</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001102089956039406</v>
+        <v>0.00115670956468238</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001102089956039406</v>
+        <v>0.001142949423981591</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001088849601255681</v>
+        <v>0.001108828631174519</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001057772724426635</v>
+        <v>0.001096448671611447</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001057772724426635</v>
+        <v>0.001068596735772996</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001031107915411931</v>
+        <v>0.001053902763959515</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001020020334933407</v>
+        <v>0.001053902763959515</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001016019496095977</v>
+        <v>0.001041992099195964</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001011538628358003</v>
+        <v>0.001033933008908724</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2008988857269287</v>
+        <v>0.2073185443878174</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>55.95014697728766</v>
+        <v>53.75795821317661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00193698478774619</v>
+        <v>0.00193708617319336</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001516482302613333</v>
+        <v>0.001583992595727725</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001385267876677766</v>
+        <v>0.00135923448286036</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001280959214177147</v>
+        <v>0.00135923448286036</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001280959214177147</v>
+        <v>0.001341167592764554</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001280959214177147</v>
+        <v>0.001341167592764554</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001280959214177147</v>
+        <v>0.001279973180365854</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001280959214177147</v>
+        <v>0.001185210842895596</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001246689326474766</v>
+        <v>0.001185210842895596</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001237788272959818</v>
+        <v>0.001161962389355659</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001200660095172578</v>
+        <v>0.001161962389355659</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00119968053846843</v>
+        <v>0.001159576680291361</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001184928044269972</v>
+        <v>0.001131076147370333</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001167549938370152</v>
+        <v>0.001106373517962029</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001157197610969413</v>
+        <v>0.001102305723478188</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001149586686548154</v>
+        <v>0.001097806337970324</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00113683028763113</v>
+        <v>0.001084765450392602</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001122794443566016</v>
+        <v>0.001063748249336683</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001100173656814397</v>
+        <v>0.00106007022577774</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001090646139908141</v>
+        <v>0.001047913415461532</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3587503433227539</v>
+        <v>0.239255428314209</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>53.4812709532398</v>
+        <v>54.71823375087115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.001901045187600951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001618046019449895</v>
+        <v>0.001716593631869141</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001460194097684929</v>
+        <v>0.001453525158727221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001404730623621927</v>
+        <v>0.00140295595249291</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00129342271736006</v>
+        <v>0.001380974317021949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001230532932136431</v>
+        <v>0.001380974317021949</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001230532932136431</v>
+        <v>0.00137031803002209</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001230532932136431</v>
+        <v>0.001244268751742688</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001223006587661536</v>
+        <v>0.001244268751742688</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001174473806390273</v>
+        <v>0.001229067786677871</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001153149679319444</v>
+        <v>0.001193838002500821</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001118541395763886</v>
+        <v>0.001193838002500821</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001118541395763886</v>
+        <v>0.001163407608780855</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001094684818804117</v>
+        <v>0.00115181574756884</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001094684818804117</v>
+        <v>0.001114666237604397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001077444735167101</v>
+        <v>0.001103375675023001</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001077444735167101</v>
+        <v>0.001103375675023001</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001054763580143425</v>
+        <v>0.001087436560867582</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001054763580143425</v>
+        <v>0.00107539917713467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001042519901622608</v>
+        <v>0.001066632236859086</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2344279289245605</v>
+        <v>0.2191896438598633</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>52.05761142523988</v>
+        <v>52.99324218674701</v>
       </c>
       <c r="F11" t="n">
         <v>0.00193708617319336</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001533690496524545</v>
+        <v>0.001625389986190719</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001394777444239528</v>
+        <v>0.001441146269323767</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001394777444239528</v>
+        <v>0.00136482833511409</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001283667434161057</v>
+        <v>0.001329357157207807</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001265983688490078</v>
+        <v>0.001329357157207807</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001265983688490078</v>
+        <v>0.001253597947444597</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001202179823548254</v>
+        <v>0.001253597947444597</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001202179823548254</v>
+        <v>0.001241764762831721</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001181638744857201</v>
+        <v>0.001241764762831721</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001161202491714302</v>
+        <v>0.001191641715421864</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001154288209884958</v>
+        <v>0.001146309840252627</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001124910687063412</v>
+        <v>0.001146309840252627</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001124910687063412</v>
+        <v>0.001110577520175511</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001051902121793953</v>
+        <v>0.001104657346617631</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001051902121793953</v>
+        <v>0.001100072085590861</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001051902121793953</v>
+        <v>0.001068409290372918</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001028676084143621</v>
+        <v>0.001053571629513561</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00102686746114434</v>
+        <v>0.001039166438432291</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001014768253903311</v>
+        <v>0.001033006670306959</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_01_simulated/details.xlsx
+++ b/result/gr25_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3260133266448975</v>
+        <v>0.4439959526062012</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.19530194853905</v>
+        <v>67.76515235949591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002251725967537097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001614282915651162</v>
+        <v>0.001994023637924339</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001474663765395419</v>
+        <v>0.001770823232218035</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001474663765395419</v>
+        <v>0.001696340112274568</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001435007657782635</v>
+        <v>0.001696340112274568</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001368985721015087</v>
+        <v>0.001652166767338213</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001342061859284133</v>
+        <v>0.001640092300817573</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001247027965317697</v>
+        <v>0.001569885235033061</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001247027965317697</v>
+        <v>0.001522893761134875</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001161042037927625</v>
+        <v>0.001498910872656215</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001161042037927625</v>
+        <v>0.001494442772140172</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001122052931221521</v>
+        <v>0.001480412947147515</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001097907715602116</v>
+        <v>0.001435774385189924</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001097907715602116</v>
+        <v>0.001406529534540266</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001097907715602116</v>
+        <v>0.001375722688603682</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001097907715602116</v>
+        <v>0.001369069212867554</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001096096261867095</v>
+        <v>0.001350552546095126</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001094757477420461</v>
+        <v>0.001320958135662688</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001080757880222699</v>
+        <v>0.001320958135662688</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001075931811862359</v>
+        <v>0.001320958135662688</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2740449905395508</v>
+        <v>0.3639762401580811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>51.90189426400138</v>
+        <v>67.7677627982157</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002251725967537097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001588698868452422</v>
+        <v>0.001905245888792103</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001449352956172938</v>
+        <v>0.001796413565771643</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001327057453588113</v>
+        <v>0.001724464479688052</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001327057453588113</v>
+        <v>0.001680122351024738</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001285011079778936</v>
+        <v>0.001605002834890045</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001253697775171577</v>
+        <v>0.001552212583888019</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001246499520321984</v>
+        <v>0.00145065100351908</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001246499520321984</v>
+        <v>0.001432332768449217</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001167888378278615</v>
+        <v>0.001432332768449217</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001144224340544481</v>
+        <v>0.001409792264924772</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001104392785848893</v>
+        <v>0.001373399205807708</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001094938547026175</v>
+        <v>0.001331799429094263</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001073635332183636</v>
+        <v>0.001331799429094263</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00105479369664574</v>
+        <v>0.001331799429094263</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001037888920513721</v>
+        <v>0.001325913478444472</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001037888920513721</v>
+        <v>0.001325913478444472</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001023560124360822</v>
+        <v>0.001323582746114984</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001016834911464663</v>
+        <v>0.001323582746114984</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001011732831656947</v>
+        <v>0.001321009021407713</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2221107482910156</v>
+        <v>0.3619959354400635</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.1604029801274</v>
+        <v>68.07349966671245</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002251725967537097</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001474373738155936</v>
+        <v>0.001882451125012616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00142741662757629</v>
+        <v>0.001703665685309692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001383611703336198</v>
+        <v>0.001703665685309692</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001361862594219478</v>
+        <v>0.001654810202386467</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001327506828734737</v>
+        <v>0.00154177382804715</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001256940992374843</v>
+        <v>0.00154177382804715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001256940992374843</v>
+        <v>0.001437088300089596</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001256940992374843</v>
+        <v>0.001437088300089596</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001256940992374843</v>
+        <v>0.001432925978414713</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001195443298494216</v>
+        <v>0.001432925978414713</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001195443298494216</v>
+        <v>0.001432925978414713</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001154150309460297</v>
+        <v>0.001401134136565383</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001139217272490699</v>
+        <v>0.001401134136565383</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001098253733138509</v>
+        <v>0.001367028864902292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001087842380318435</v>
+        <v>0.001347986721313227</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001080728982990719</v>
+        <v>0.001347986721313227</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001057865891180823</v>
+        <v>0.001342204894243936</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001037905199908826</v>
+        <v>0.001327514534611951</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001036265165304628</v>
+        <v>0.001326968804419346</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2858626842498779</v>
+        <v>0.3850030899047852</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.91586791694499</v>
+        <v>68.62686388740258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002168751758780943</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001607069092659935</v>
+        <v>0.001848732562155039</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001544747418441592</v>
+        <v>0.001795491960731428</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001397212136701191</v>
+        <v>0.001732684028484852</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001397212136701191</v>
+        <v>0.001684583754126931</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001397212136701191</v>
+        <v>0.001684583754126931</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001334379282170967</v>
+        <v>0.001578225675324287</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001310743449623976</v>
+        <v>0.001551009421582137</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001228004965801997</v>
+        <v>0.00151743919092832</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001228004965801997</v>
+        <v>0.001482640172362649</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001228004965801997</v>
+        <v>0.001479093105384426</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001199176269367962</v>
+        <v>0.0014303195172292</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00118768483859957</v>
+        <v>0.001407189344119073</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001179128012294062</v>
+        <v>0.001407189344119073</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001154071151656085</v>
+        <v>0.001407189344119073</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001135182204253374</v>
+        <v>0.00139213927090051</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001119167386653371</v>
+        <v>0.001366885030886754</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001099247544057896</v>
+        <v>0.001361060515916043</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001099247544057896</v>
+        <v>0.001349760237456449</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001089977932104191</v>
+        <v>0.001337755631333383</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3089587688446045</v>
+        <v>0.3379988670349121</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>54.82122733192409</v>
+        <v>66.80591782280317</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002204778545087303</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001567339396814643</v>
+        <v>0.00186528695705306</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001472718318202052</v>
+        <v>0.001672953348297419</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001375652742961917</v>
+        <v>0.001600387213193439</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001360027046507985</v>
+        <v>0.001600387213193439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001319507424841663</v>
+        <v>0.00158363099104048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001319507424841663</v>
+        <v>0.001458513245430779</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001219204131700101</v>
+        <v>0.001458513245430779</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001219204131700101</v>
+        <v>0.001425815106705951</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001206774253131083</v>
+        <v>0.001419779103914735</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001176093531518318</v>
+        <v>0.001418726849932279</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001176093531518318</v>
+        <v>0.001418726849932279</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001143791534950704</v>
+        <v>0.001415889140880147</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001131665803806176</v>
+        <v>0.001388645477659506</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001120482994711816</v>
+        <v>0.001361948391625874</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001113034280203392</v>
+        <v>0.001353016288948954</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001094506547793344</v>
+        <v>0.00133478762765907</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00109305207247858</v>
+        <v>0.001318786873233438</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001088394536213544</v>
+        <v>0.001305618593374235</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001068639909004368</v>
+        <v>0.001302259606682322</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3329288959503174</v>
+        <v>0.5020124912261963</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55.45305847742566</v>
+        <v>69.38432292406105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002225726544130102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00160843379027147</v>
+        <v>0.001887817465543896</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001508323544057717</v>
+        <v>0.001721600267429329</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00147085894684559</v>
+        <v>0.001620301991031341</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001371826854793346</v>
+        <v>0.001579629437243875</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001353026232869847</v>
+        <v>0.001572164832052354</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00129613252471766</v>
+        <v>0.001480817476018366</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001163375587572966</v>
+        <v>0.001480817476018366</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001163375587572966</v>
+        <v>0.001449421184235128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001163375587572966</v>
+        <v>0.001443042738088163</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001163375587572966</v>
+        <v>0.001428876708005882</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001163375587572966</v>
+        <v>0.001386100609925477</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001156715553782254</v>
+        <v>0.001386100609925477</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001148596602212179</v>
+        <v>0.001369916374965719</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001135982044601242</v>
+        <v>0.001369916374965719</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00111527730927445</v>
+        <v>0.001361923397848849</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001096330227938437</v>
+        <v>0.001359403267458448</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001096330227938437</v>
+        <v>0.001357159529092399</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001080956305602839</v>
+        <v>0.001354799215832774</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001080956305602839</v>
+        <v>0.001352520914699046</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2268500328063965</v>
+        <v>0.4069933891296387</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>53.04076335701757</v>
+        <v>69.05400904423004</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002251725967537097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0015608470781461</v>
+        <v>0.001808058442435551</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001420679607079712</v>
+        <v>0.001684724324544799</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001420679607079712</v>
+        <v>0.001684724324544799</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001355465243370035</v>
+        <v>0.001601466755486608</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001355465243370035</v>
+        <v>0.001572679556720189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00123612566526615</v>
+        <v>0.001549519067305342</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00123612566526615</v>
+        <v>0.001489991326940234</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00123612566526615</v>
+        <v>0.001489991326940234</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00123612566526615</v>
+        <v>0.001439448748918395</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001175312739882922</v>
+        <v>0.001432058428655797</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00115670956468238</v>
+        <v>0.001432058428655797</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001142949423981591</v>
+        <v>0.001430151461905308</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001108828631174519</v>
+        <v>0.001425147593333897</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001096448671611447</v>
+        <v>0.00142097469155842</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001068596735772996</v>
+        <v>0.001380355537067801</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001053902763959515</v>
+        <v>0.001376123048518429</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001053902763959515</v>
+        <v>0.001364499286267277</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001041992099195964</v>
+        <v>0.001359155639952999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001033933008908724</v>
+        <v>0.001346082047645809</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2073185443878174</v>
+        <v>0.3819990158081055</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>53.75795821317661</v>
+        <v>72.4433696700853</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002233534034567199</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001583992595727725</v>
+        <v>0.001913506730443277</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00135923448286036</v>
+        <v>0.001825601836752712</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00135923448286036</v>
+        <v>0.00172829899103374</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001341167592764554</v>
+        <v>0.001706608045708165</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001341167592764554</v>
+        <v>0.001665378163008859</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001279973180365854</v>
+        <v>0.001646406816097274</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001185210842895596</v>
+        <v>0.001646406816097274</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001185210842895596</v>
+        <v>0.001518935396185578</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001161962389355659</v>
+        <v>0.001518935396185578</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001161962389355659</v>
+        <v>0.001518935396185578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001159576680291361</v>
+        <v>0.001473765359558874</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001131076147370333</v>
+        <v>0.001473765359558874</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001106373517962029</v>
+        <v>0.001445096344670592</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001102305723478188</v>
+        <v>0.001445096344670592</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001097806337970324</v>
+        <v>0.001445096344670592</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001084765450392602</v>
+        <v>0.001426308546948032</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001063748249336683</v>
+        <v>0.001426308546948032</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00106007022577774</v>
+        <v>0.001420472305206764</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001047913415461532</v>
+        <v>0.001412151455557218</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239255428314209</v>
+        <v>0.3600194454193115</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>54.71823375087115</v>
+        <v>64.49166949392566</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001901045187600951</v>
+        <v>0.002251725967537097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001716593631869141</v>
+        <v>0.001909053467736253</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001453525158727221</v>
+        <v>0.00176948621282511</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00140295595249291</v>
+        <v>0.001604848932859711</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001380974317021949</v>
+        <v>0.001558804230442203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001380974317021949</v>
+        <v>0.001441795458406232</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00137031803002209</v>
+        <v>0.001441795458406232</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001244268751742688</v>
+        <v>0.001370923270996674</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001244268751742688</v>
+        <v>0.001354413872092431</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001229067786677871</v>
+        <v>0.001354413872092431</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001193838002500821</v>
+        <v>0.001354413872092431</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001193838002500821</v>
+        <v>0.001354413872092431</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001163407608780855</v>
+        <v>0.00130281713131175</v>
       </c>
       <c r="S10" t="n">
-        <v>0.00115181574756884</v>
+        <v>0.00130281713131175</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001114666237604397</v>
+        <v>0.001300349323208787</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001103375675023001</v>
+        <v>0.001279586579626571</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001103375675023001</v>
+        <v>0.001279586579626571</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001087436560867582</v>
+        <v>0.001262349777819599</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00107539917713467</v>
+        <v>0.001262349777819599</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001066632236859086</v>
+        <v>0.001257147553487829</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2191896438598633</v>
+        <v>0.4619977474212646</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>52.99324218674701</v>
+        <v>68.85805644363791</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00193708617319336</v>
+        <v>0.002230626523665372</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001625389986190719</v>
+        <v>0.001848276359618658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001441146269323767</v>
+        <v>0.001750678026349059</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00136482833511409</v>
+        <v>0.001746339438997173</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001329357157207807</v>
+        <v>0.001698384289887465</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001329357157207807</v>
+        <v>0.001566395556625993</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001253597947444597</v>
+        <v>0.001533066924512063</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001253597947444597</v>
+        <v>0.001533066924512063</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001241764762831721</v>
+        <v>0.001468617783662127</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001241764762831721</v>
+        <v>0.001371934846889101</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001191641715421864</v>
+        <v>0.00136448471432072</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001146309840252627</v>
+        <v>0.00136448471432072</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001146309840252627</v>
+        <v>0.00136448471432072</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001110577520175511</v>
+        <v>0.00136448471432072</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001104657346617631</v>
+        <v>0.001362897150696523</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001100072085590861</v>
+        <v>0.001359522165112352</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001068409290372918</v>
+        <v>0.001347864070805662</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001053571629513561</v>
+        <v>0.001346556143593116</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001039166438432291</v>
+        <v>0.001343654981714986</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001033006670306959</v>
+        <v>0.001342262308842844</v>
       </c>
     </row>
   </sheetData>
